--- a/srcript/reg_tab/Tables/L4.xlsx
+++ b/srcript/reg_tab/Tables/L4.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\product\FWD-SW\trunk\FWD\sdk\sf_sdk\sdk\tools\srcript\reg_tab\Tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本说明" sheetId="2" r:id="rId1"/>
@@ -33,12 +28,12 @@
     <sheet name="IFP_COUNT_T" sheetId="20" r:id="rId19"/>
     <sheet name="EFP_COUNT_T" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="447">
   <si>
     <t>文档说明</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -300,9 +295,6 @@
     <t>115:113</t>
   </si>
   <si>
-    <t>117:116</t>
-  </si>
-  <si>
     <t>119:118</t>
   </si>
   <si>
@@ -312,12 +304,6 @@
     <t>125:123</t>
   </si>
   <si>
-    <t>133:126</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
     <t>15:13</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -330,10 +316,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>15:3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>EVEN_PARITY</t>
   </si>
   <si>
@@ -490,9 +472,6 @@
   </si>
   <si>
     <t>164</t>
-  </si>
-  <si>
-    <t>163:162</t>
   </si>
   <si>
     <t>161</t>
@@ -968,9 +947,6 @@
     <t>G_NEW_DOT1P</t>
   </si>
   <si>
-    <t>127</t>
-  </si>
-  <si>
     <t>126:125</t>
   </si>
   <si>
@@ -1499,10 +1475,6 @@
   <si>
     <t>SPARE</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserved</t>
-    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>FLEX_CTR_OFFSET_MODE</t>
@@ -1529,31 +1501,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>RESERVED</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>4k</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ICAP_POLICY_T（entry_type=0x1）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>EVEN_PARITY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>EVEN_PARITY</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserved</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCAP_POLICY_T（entry_type=0x0）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1561,26 +1517,84 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>reserved</t>
+    <t>133</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>132:126</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCAP_LB_LABLE_EN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_COS_MSB</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>reserved</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>161:135</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>164</t>
+    <t>116</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESERVED_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>163</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>162</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>entry_type</t>
+  </si>
+  <si>
+    <t>EVEN_PARITY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_COS_MSB</t>
+  </si>
+  <si>
+    <t>145</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPE_INSTRUCTION_EN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>144</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPE_INSTRUCTION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>143:127</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICAP_POLICY_T（entry_type=0x1）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCAP_POLICY_T（entry_type=0x0）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="33">
     <font>
       <sz val="11"/>
@@ -1842,7 +1856,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2052,8 +2066,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2257,6 +2283,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2386,7 +2432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2442,9 +2488,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2459,42 +2502,18 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2525,21 +2544,33 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2567,53 +2598,127 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2633,7 +2738,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2880,14 +2985,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2901,29 +3006,29 @@
     <col min="4" max="4" width="71.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:4" ht="25.5">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="135" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -3061,7 +3166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3085,7 +3190,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -3117,13 +3222,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -3138,135 +3243,135 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33">
       <c r="A4" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>207</v>
+        <v>349</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>202</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="10"/>
       <c r="D5" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="4"/>
     </row>
   </sheetData>
@@ -3281,14 +3386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3305,7 +3410,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -3337,13 +3442,13 @@
         <v>81</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -3358,25 +3463,25 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33">
       <c r="A4" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>366</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10">
         <v>80</v>
@@ -3384,139 +3489,139 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>356</v>
+      <c r="B5" s="34" t="s">
+        <v>350</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>358</v>
+      <c r="B6" s="34" t="s">
+        <v>352</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43" t="s">
-        <v>360</v>
+      <c r="B7" s="34" t="s">
+        <v>354</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43" t="s">
-        <v>362</v>
+      <c r="B8" s="34" t="s">
+        <v>356</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43" t="s">
-        <v>364</v>
+      <c r="B9" s="34" t="s">
+        <v>358</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43" t="s">
-        <v>366</v>
+      <c r="B10" s="34" t="s">
+        <v>360</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43" t="s">
-        <v>368</v>
+      <c r="B11" s="34" t="s">
+        <v>362</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43" t="s">
-        <v>370</v>
+      <c r="B12" s="34" t="s">
+        <v>364</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="43"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="10"/>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="45"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="4"/>
     </row>
   </sheetData>
@@ -3531,14 +3636,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3555,7 +3660,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -3587,13 +3692,13 @@
         <v>81</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -3608,127 +3713,127 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>368</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>376</v>
+      <c r="B5" s="34" t="s">
+        <v>370</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="10"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="4"/>
     </row>
   </sheetData>
@@ -3743,7 +3848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -3767,7 +3872,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -3793,19 +3898,19 @@
     </row>
     <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="16" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B2" s="16">
         <v>10</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -3820,121 +3925,121 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>377</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>379</v>
+      <c r="B5" s="34" t="s">
+        <v>373</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>381</v>
+      <c r="B6" s="34" t="s">
+        <v>375</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
   </sheetData>
@@ -3949,7 +4054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -3973,7 +4078,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -3999,19 +4104,19 @@
     </row>
     <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="16" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B2" s="16">
         <v>10</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -4026,121 +4131,121 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33">
       <c r="A4" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>416</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>379</v>
+      <c r="B5" s="34" t="s">
+        <v>373</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>381</v>
+      <c r="B6" s="34" t="s">
+        <v>375</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
   </sheetData>
@@ -4155,7 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4179,7 +4284,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -4211,13 +4316,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -4232,121 +4337,121 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>378</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>386</v>
+      <c r="B5" s="34" t="s">
+        <v>380</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>388</v>
+      <c r="B6" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
   </sheetData>
@@ -4361,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4385,7 +4490,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -4417,13 +4522,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -4438,121 +4543,121 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33">
       <c r="A4" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>415</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>386</v>
+      <c r="B5" s="34" t="s">
+        <v>380</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>388</v>
+      <c r="B6" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
   </sheetData>
@@ -4567,14 +4672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4591,7 +4696,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -4623,13 +4728,13 @@
         <v>68</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -4644,137 +4749,137 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>390</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>397</v>
+      <c r="B5" s="34" t="s">
+        <v>391</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>392</v>
+      <c r="B6" s="34" t="s">
+        <v>386</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43" t="s">
-        <v>393</v>
+      <c r="B7" s="34" t="s">
+        <v>387</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43" t="s">
-        <v>394</v>
+      <c r="B8" s="34" t="s">
+        <v>388</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43" t="s">
-        <v>347</v>
+      <c r="B9" s="34" t="s">
+        <v>341</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43" t="s">
-        <v>349</v>
+      <c r="B10" s="34" t="s">
+        <v>343</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
   </sheetData>
@@ -4789,7 +4894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4813,7 +4918,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -4845,13 +4950,13 @@
         <v>68</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -4866,137 +4971,137 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>397</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>397</v>
+      <c r="B5" s="34" t="s">
+        <v>391</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>392</v>
+      <c r="B6" s="34" t="s">
+        <v>386</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43" t="s">
-        <v>393</v>
+      <c r="B7" s="34" t="s">
+        <v>387</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43" t="s">
-        <v>394</v>
+      <c r="B8" s="34" t="s">
+        <v>388</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43" t="s">
-        <v>347</v>
+      <c r="B9" s="34" t="s">
+        <v>341</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43" t="s">
-        <v>349</v>
+      <c r="B10" s="34" t="s">
+        <v>343</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
   </sheetData>
@@ -5011,13 +5116,13 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5035,7 +5140,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -5067,13 +5172,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -5088,121 +5193,121 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>394</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>386</v>
+      <c r="B5" s="34" t="s">
+        <v>380</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>388</v>
+      <c r="B6" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
   </sheetData>
@@ -5217,14 +5322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5273,10 +5378,10 @@
         <v>134</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="20"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
@@ -5294,7 +5399,7 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -5308,146 +5413,142 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="21">
-      <c r="A4" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>442</v>
-      </c>
+      <c r="A4" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" s="38"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="11"/>
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="21">
-      <c r="A5" s="58"/>
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="21">
-      <c r="A6" s="58"/>
-      <c r="B6" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
+      <c r="C5" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
+      <c r="A6" s="53"/>
+      <c r="B6" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5">
+      <c r="A7" s="53"/>
+      <c r="B7" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="58"/>
-      <c r="B8" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="58"/>
-      <c r="B9" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="58"/>
-      <c r="B10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="58"/>
-      <c r="B11" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>80</v>
+      <c r="A11" s="53"/>
+      <c r="B11" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="58"/>
-      <c r="B12" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>79</v>
+      <c r="A12" s="53"/>
+      <c r="B12" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="58"/>
-      <c r="B13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="A13" s="53"/>
+      <c r="B13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="58"/>
-      <c r="B14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>77</v>
+      <c r="A14" s="53"/>
+      <c r="B14" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
@@ -5456,12 +5557,12 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="58"/>
-      <c r="B15" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>76</v>
+      <c r="A15" s="53"/>
+      <c r="B15" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -5470,12 +5571,12 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="A16" s="58"/>
-      <c r="B16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>75</v>
+      <c r="A16" s="53"/>
+      <c r="B16" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
@@ -5484,26 +5585,26 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.5">
-      <c r="A17" s="58"/>
-      <c r="B17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="3"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="16.5">
-      <c r="A18" s="58"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>73</v>
+        <v>419</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="14"/>
@@ -5512,12 +5613,12 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.5">
-      <c r="A19" s="58"/>
-      <c r="B19" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>72</v>
+      <c r="A19" s="53"/>
+      <c r="B19" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="14"/>
@@ -5526,12 +5627,12 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.5">
-      <c r="A20" s="58"/>
-      <c r="B20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>71</v>
+      <c r="A20" s="53"/>
+      <c r="B20" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="14"/>
@@ -5540,12 +5641,12 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>70</v>
+      <c r="A21" s="53"/>
+      <c r="B21" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="14"/>
@@ -5554,12 +5655,12 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="16.5">
-      <c r="A22" s="58"/>
-      <c r="B22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>69</v>
+      <c r="A22" s="53"/>
+      <c r="B22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="14"/>
@@ -5568,12 +5669,12 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="58"/>
-      <c r="B23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>68</v>
+      <c r="A23" s="53"/>
+      <c r="B23" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="14"/>
@@ -5582,12 +5683,12 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="16.5">
-      <c r="A24" s="58"/>
-      <c r="B24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>67</v>
+      <c r="A24" s="53"/>
+      <c r="B24" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="14"/>
@@ -5596,12 +5697,12 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="16.5">
-      <c r="A25" s="58"/>
-      <c r="B25" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>66</v>
+      <c r="A25" s="53"/>
+      <c r="B25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="14"/>
@@ -5610,12 +5711,12 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="16.5">
-      <c r="A26" s="58"/>
-      <c r="B26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>65</v>
+      <c r="A26" s="53"/>
+      <c r="B26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="14"/>
@@ -5624,12 +5725,12 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16.5">
-      <c r="A27" s="58"/>
-      <c r="B27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>64</v>
+      <c r="A27" s="53"/>
+      <c r="B27" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="14"/>
@@ -5638,12 +5739,12 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="16.5">
-      <c r="A28" s="58"/>
-      <c r="B28" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>63</v>
+      <c r="A28" s="53"/>
+      <c r="B28" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="14"/>
@@ -5652,12 +5753,12 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="16.5">
-      <c r="A29" s="58"/>
-      <c r="B29" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>62</v>
+      <c r="A29" s="53"/>
+      <c r="B29" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="14"/>
@@ -5666,74 +5767,74 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="16.5">
-      <c r="A30" s="58"/>
-      <c r="B30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="16.5">
-      <c r="A31" s="58"/>
-      <c r="B31" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>60</v>
+      <c r="A31" s="53"/>
+      <c r="B31" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
-      <c r="A32" s="58"/>
-      <c r="B32" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>59</v>
+    <row r="32" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A32" s="53"/>
+      <c r="B32" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5">
-      <c r="A33" s="58"/>
-      <c r="B33" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>58</v>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A33" s="53"/>
+      <c r="B33" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>57</v>
-      </c>
+      <c r="A34" s="53"/>
+      <c r="B34" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="3"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>56</v>
+      <c r="A35" s="53"/>
+      <c r="B35" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
@@ -5742,80 +5843,80 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="18" t="s">
-        <v>27</v>
+      <c r="A37" s="53"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="18" t="s">
-        <v>28</v>
+      <c r="A38" s="53"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="18" t="s">
-        <v>29</v>
+      <c r="A39" s="53"/>
+      <c r="D39" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="D40" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="A40" s="53"/>
+      <c r="B40" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="3"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>54</v>
+      <c r="A41" s="53"/>
+      <c r="B41" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
@@ -5824,620 +5925,629 @@
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A42" s="59"/>
-      <c r="B42" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>53</v>
-      </c>
+      <c r="A42" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="3"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
-      <c r="A43" s="57" t="s">
-        <v>433</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="23"/>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A43" s="53"/>
+      <c r="B43" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="22"/>
       <c r="E43" s="14"/>
       <c r="F43" s="3"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="16.5">
-      <c r="A44" s="58"/>
-      <c r="B44" s="49" t="s">
-        <v>438</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="23"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D44" s="22"/>
       <c r="E44" s="14"/>
       <c r="F44" s="3"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="58"/>
-      <c r="B45" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="9"/>
+    <row r="45" spans="1:8" ht="16.5">
+      <c r="A45" s="53"/>
+      <c r="B45" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="3"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="58"/>
-      <c r="B46" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+    <row r="46" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A46" s="53"/>
+      <c r="B46" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="3"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="58"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="58"/>
+    <row r="47" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A47" s="53"/>
+      <c r="B47" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A48" s="53"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="23" t="s">
-        <v>92</v>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="58"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A49" s="53"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="23" t="s">
-        <v>93</v>
+      <c r="C49" s="23"/>
+      <c r="D49" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="58"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A50" s="53"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="23" t="s">
-        <v>94</v>
+      <c r="C50" s="23"/>
+      <c r="D50" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="58"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A51" s="53"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="23" t="s">
-        <v>95</v>
+      <c r="C51" s="23"/>
+      <c r="D51" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="58"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A52" s="53"/>
       <c r="B52" s="9"/>
       <c r="C52" s="23"/>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A53" s="53"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A54" s="53"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A55" s="53"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A56" s="53"/>
+      <c r="B56" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A57" s="53"/>
+      <c r="B57" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A58" s="53"/>
+      <c r="B58" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="58"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25" t="s">
+      <c r="C58" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A59" s="53"/>
+      <c r="B59" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="58"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="23" t="s">
+      <c r="C59" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A60" s="53"/>
+      <c r="B60" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="58"/>
-      <c r="B55" s="25" t="s">
+      <c r="C60" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A61" s="53"/>
+      <c r="B61" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C61" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="58"/>
-      <c r="B56" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="32" t="s">
+      <c r="D61" s="24"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A62" s="53"/>
+      <c r="B62" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="58"/>
-      <c r="B57" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="33" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A63" s="53"/>
+      <c r="B63" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="58"/>
-      <c r="B58" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="33" t="s">
+      <c r="D63" s="24"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A64" s="53"/>
+      <c r="B64" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="58"/>
-      <c r="B59" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="34" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A65" s="53"/>
+      <c r="B65" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="58"/>
-      <c r="B60" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="33" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A66" s="53"/>
+      <c r="B66" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="58"/>
-      <c r="B61" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="34" t="s">
+      <c r="D66" s="22"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A67" s="53"/>
+      <c r="B67" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="58"/>
-      <c r="B62" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="33" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A68" s="53"/>
+      <c r="B68" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="58"/>
-      <c r="B63" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="35" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A69" s="53"/>
+      <c r="B69" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="58"/>
-      <c r="B64" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="35" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A70" s="53"/>
+      <c r="B70" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="58"/>
-      <c r="B65" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="35" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A71" s="53"/>
+      <c r="B71" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="58"/>
-      <c r="B66" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="35" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A72" s="53"/>
+      <c r="B72" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="58"/>
-      <c r="B67" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="35" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A73" s="53"/>
+      <c r="B73" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="58"/>
-      <c r="B68" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="30" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A74" s="53"/>
+      <c r="B74" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A75" s="53"/>
+      <c r="B75" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A76" s="53"/>
+      <c r="B76" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="58"/>
-      <c r="B69" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" s="30" t="s">
+      <c r="D76" s="24"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A77" s="53"/>
+      <c r="B77" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="58"/>
-      <c r="B70" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="30" t="s">
+      <c r="D77" s="24"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A78" s="53"/>
+      <c r="B78" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="58"/>
-      <c r="B71" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="35" t="s">
+      <c r="D78" s="24"/>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A79" s="53"/>
+      <c r="B79" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="58"/>
-      <c r="B72" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="35" t="s">
+      <c r="D79" s="24"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A80" s="53"/>
+      <c r="B80" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="58"/>
-      <c r="B73" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="58"/>
-      <c r="B74" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="58"/>
-      <c r="B75" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="36" t="s">
+      <c r="D80" s="24"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="53"/>
+      <c r="B81" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="9"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="58"/>
-      <c r="B76" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="36" t="s">
+      <c r="D81" s="24"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A82" s="53"/>
+      <c r="B82" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="9"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="58"/>
-      <c r="B77" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="36" t="s">
+      <c r="D82" s="24"/>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="53"/>
+      <c r="B83" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="9"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="58"/>
-      <c r="B78" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="32" t="s">
+      <c r="D83" s="24"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="53"/>
+      <c r="B84" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="9"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="58"/>
-      <c r="B79" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" s="32" t="s">
+      <c r="D84" s="24"/>
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="53"/>
+      <c r="B85" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="58"/>
-      <c r="B80" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="32" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="53"/>
+      <c r="B86" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="58"/>
-      <c r="B81" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C81" s="36" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="53"/>
+      <c r="B87" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="58"/>
-      <c r="B82" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="36" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="53"/>
+      <c r="B88" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="58"/>
-      <c r="B83" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="36" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="53"/>
+      <c r="B89" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="58"/>
-      <c r="B84" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" s="32" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="53"/>
+      <c r="B90" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="9"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="58"/>
-      <c r="B85" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="32" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="53"/>
+      <c r="B91" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="9"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="58"/>
-      <c r="B86" s="25" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="53"/>
+      <c r="B92" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C92" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="58"/>
-      <c r="B87" s="25" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="53"/>
+      <c r="B93" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C93" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="9"/>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="58"/>
-      <c r="B88" s="25" t="s">
+      <c r="D93" s="22"/>
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="53"/>
+      <c r="B94" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C94" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="58"/>
-      <c r="B89" s="25" t="s">
+      <c r="D94" s="22"/>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="53"/>
+      <c r="B95" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="9"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="58"/>
-      <c r="B90" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="9"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="58"/>
-      <c r="B91" s="29" t="s">
+      <c r="C95" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="54"/>
+      <c r="B96" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="9"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="58"/>
-      <c r="B92" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="9"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="58"/>
-      <c r="B93" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="9"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="58"/>
-      <c r="B94" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="59"/>
-      <c r="B95" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="35" t="s">
+      <c r="C96" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="9"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A43:A95"/>
-    <mergeCell ref="A4:A42"/>
+    <mergeCell ref="A4:A41"/>
+    <mergeCell ref="A42:A96"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
@@ -6446,11 +6556,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6474,7 +6585,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -6506,13 +6617,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -6527,121 +6638,121 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>373</v>
+        <v>396</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>386</v>
+      <c r="B5" s="34" t="s">
+        <v>380</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>388</v>
+      <c r="B6" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
   </sheetData>
@@ -6652,11 +6763,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6680,7 +6792,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -6695,7 +6807,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>24</v>
@@ -6712,103 +6824,103 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="22"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="21"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="21">
       <c r="A3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="148.5">
       <c r="A4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>199</v>
+        <v>203</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>200</v>
+      <c r="D5" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="22"/>
+        <v>196</v>
+      </c>
+      <c r="G5" s="21"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>202</v>
+      <c r="D6" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="22"/>
+        <v>198</v>
+      </c>
+      <c r="G6" s="21"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>204</v>
+      <c r="D7" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="22"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="21"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
@@ -6818,7 +6930,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
@@ -6828,7 +6940,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
@@ -6838,17 +6950,17 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="40"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
@@ -6858,7 +6970,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
@@ -6868,7 +6980,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.5">
@@ -6878,7 +6990,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.5">
@@ -6888,7 +7000,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.5">
@@ -6898,7 +7010,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.5">
@@ -6908,127 +7020,127 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="41"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="22"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="41"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="22"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="41"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="22"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="41"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="22"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="41"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="41"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="22"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="41"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="22"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="41"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="22"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="41"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="22"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="41"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="22"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="4"/>
     </row>
   </sheetData>
@@ -7043,7 +7155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7067,7 +7179,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -7099,13 +7211,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="37"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="28"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="21">
       <c r="A3" s="6" t="s">
@@ -7120,333 +7232,333 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="57" t="s">
-        <v>401</v>
+      <c r="A4" s="52" t="s">
+        <v>395</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="37"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="58"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="37"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="58"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="58"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="58"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="58"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="58"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="58"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="58"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="58"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="58"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="37"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="58"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="A16" s="58"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.5">
-      <c r="A17" s="58"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="37"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="16.5">
-      <c r="A18" s="58"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="37"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.5">
-      <c r="A19" s="58"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="37"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.5">
-      <c r="A20" s="58"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="37"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="58"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="37"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="16.5">
-      <c r="A22" s="58"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="58"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="16.5">
-      <c r="A24" s="58"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="37"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="16.5">
-      <c r="A25" s="58"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="37"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="16.5">
-      <c r="A26" s="59"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>53</v>
@@ -7454,7 +7566,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="37"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16.5">
@@ -7464,47 +7576,47 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="37"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="41"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="41"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="37"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="41"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="37"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="41"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="37"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="4"/>
     </row>
   </sheetData>
@@ -7522,14 +7634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7546,7 +7658,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -7578,13 +7690,13 @@
         <v>128</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="42"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="33"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="21">
       <c r="A3" s="6" t="s">
@@ -7599,420 +7711,420 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="57" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>89</v>
+      <c r="A4" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>282</v>
+        <v>440</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="58"/>
-      <c r="B5" s="43" t="s">
-        <v>248</v>
+      <c r="A5" s="56"/>
+      <c r="B5" s="34" t="s">
+        <v>441</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>283</v>
+        <v>442</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="42"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="58"/>
-      <c r="B6" s="43" t="s">
-        <v>249</v>
+      <c r="A6" s="56"/>
+      <c r="B6" s="34" t="s">
+        <v>443</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>284</v>
+        <v>444</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="14"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="42"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="58"/>
-      <c r="B7" s="43" t="s">
-        <v>250</v>
+      <c r="A7" s="56"/>
+      <c r="B7" s="34" t="s">
+        <v>243</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="42"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="58"/>
-      <c r="B8" s="43" t="s">
-        <v>104</v>
+      <c r="A8" s="56"/>
+      <c r="B8" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="58"/>
-      <c r="B9" s="43" t="s">
-        <v>251</v>
+      <c r="A9" s="56"/>
+      <c r="B9" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="42"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="58"/>
-      <c r="B10" s="43" t="s">
-        <v>252</v>
+      <c r="A10" s="56"/>
+      <c r="B10" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="42"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="58"/>
-      <c r="B11" s="43" t="s">
-        <v>253</v>
+      <c r="A11" s="56"/>
+      <c r="B11" s="34" t="s">
+        <v>246</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="42"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="58"/>
-      <c r="B12" s="43" t="s">
-        <v>254</v>
+      <c r="A12" s="56"/>
+      <c r="B12" s="34" t="s">
+        <v>247</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="42"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="58"/>
-      <c r="B13" s="43" t="s">
-        <v>255</v>
+      <c r="A13" s="56"/>
+      <c r="B13" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="42"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="58"/>
-      <c r="B14" s="43" t="s">
-        <v>256</v>
+      <c r="A14" s="56"/>
+      <c r="B14" s="34" t="s">
+        <v>249</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="42"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="58"/>
-      <c r="B15" s="43" t="s">
-        <v>257</v>
+      <c r="A15" s="56"/>
+      <c r="B15" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="42"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="A16" s="58"/>
-      <c r="B16" s="43" t="s">
-        <v>258</v>
+      <c r="A16" s="56"/>
+      <c r="B16" s="34" t="s">
+        <v>251</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>292</v>
+        <v>151</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="42"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.5">
-      <c r="A17" s="58"/>
-      <c r="B17" s="43" t="s">
-        <v>259</v>
+      <c r="A17" s="56"/>
+      <c r="B17" s="34" t="s">
+        <v>252</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="42"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="16.5">
-      <c r="A18" s="58"/>
-      <c r="B18" s="43" t="s">
-        <v>260</v>
+      <c r="A18" s="56"/>
+      <c r="B18" s="34" t="s">
+        <v>253</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="42"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16.5">
-      <c r="A19" s="58"/>
-      <c r="B19" s="43" t="s">
-        <v>261</v>
+      <c r="A19" s="56"/>
+      <c r="B19" s="34" t="s">
+        <v>254</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="42"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="16.5">
-      <c r="A20" s="58"/>
-      <c r="B20" s="43" t="s">
-        <v>262</v>
+      <c r="A20" s="56"/>
+      <c r="B20" s="34" t="s">
+        <v>255</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="42"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="43" t="s">
-        <v>263</v>
+      <c r="A21" s="56"/>
+      <c r="B21" s="34" t="s">
+        <v>256</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="42"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="16.5">
-      <c r="A22" s="58"/>
-      <c r="B22" s="43" t="s">
-        <v>264</v>
+      <c r="A22" s="56"/>
+      <c r="B22" s="34" t="s">
+        <v>257</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="42"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="58"/>
-      <c r="B23" s="43" t="s">
-        <v>265</v>
+      <c r="A23" s="56"/>
+      <c r="B23" s="34" t="s">
+        <v>258</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="42"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="16.5">
-      <c r="A24" s="58"/>
-      <c r="B24" s="43" t="s">
-        <v>132</v>
+      <c r="A24" s="56"/>
+      <c r="B24" s="34" t="s">
+        <v>259</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="42"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="16.5">
-      <c r="A25" s="58"/>
-      <c r="B25" s="43" t="s">
-        <v>266</v>
+      <c r="A25" s="56"/>
+      <c r="B25" s="34" t="s">
+        <v>260</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="42"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="16.5">
-      <c r="A26" s="58"/>
-      <c r="B26" s="43" t="s">
-        <v>267</v>
+      <c r="A26" s="56"/>
+      <c r="B26" s="34" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="42"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16.5">
-      <c r="A27" s="58"/>
-      <c r="B27" s="43" t="s">
-        <v>117</v>
+      <c r="A27" s="56"/>
+      <c r="B27" s="34" t="s">
+        <v>261</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="42"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="16.5">
-      <c r="A28" s="58"/>
-      <c r="B28" s="43" t="s">
-        <v>119</v>
+      <c r="A28" s="56"/>
+      <c r="B28" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="42"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="16.5">
-      <c r="A29" s="58"/>
-      <c r="B29" s="43" t="s">
-        <v>116</v>
+      <c r="A29" s="56"/>
+      <c r="B29" s="34" t="s">
+        <v>113</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="42"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="16.5">
-      <c r="A30" s="58"/>
-      <c r="B30" s="43" t="s">
-        <v>120</v>
+      <c r="A30" s="56"/>
+      <c r="B30" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="42"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="16.5">
-      <c r="A31" s="58"/>
-      <c r="B31" s="43" t="s">
-        <v>268</v>
+      <c r="A31" s="56"/>
+      <c r="B31" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="42"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="58"/>
-      <c r="B32" s="43" t="s">
-        <v>269</v>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
+      <c r="A32" s="56"/>
+      <c r="B32" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>59</v>
+        <v>300</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -8020,13 +8132,13 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15">
-      <c r="A33" s="58"/>
-      <c r="B33" s="44" t="s">
-        <v>270</v>
+    <row r="33" spans="1:8" ht="15" customHeight="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -8034,13 +8146,13 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15">
-      <c r="A34" s="58"/>
-      <c r="B34" s="44" t="s">
-        <v>271</v>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>307</v>
+        <v>59</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -8048,13 +8160,13 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15">
-      <c r="A35" s="58"/>
-      <c r="B35" s="44" t="s">
-        <v>272</v>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="56"/>
+      <c r="B35" s="35" t="s">
+        <v>265</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -8062,13 +8174,13 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15">
-      <c r="A36" s="58"/>
-      <c r="B36" s="44" t="s">
-        <v>273</v>
+    <row r="36" spans="1:8" ht="15" customHeight="1">
+      <c r="A36" s="56"/>
+      <c r="B36" s="35" t="s">
+        <v>266</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -8076,13 +8188,13 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15">
-      <c r="A37" s="58"/>
-      <c r="B37" s="44" t="s">
-        <v>274</v>
+    <row r="37" spans="1:8" ht="15" customHeight="1">
+      <c r="A37" s="56"/>
+      <c r="B37" s="35" t="s">
+        <v>267</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -8090,13 +8202,13 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15">
-      <c r="A38" s="58"/>
-      <c r="B38" s="44" t="s">
-        <v>275</v>
+    <row r="38" spans="1:8" ht="15" customHeight="1">
+      <c r="A38" s="56"/>
+      <c r="B38" s="35" t="s">
+        <v>268</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -8104,13 +8216,13 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="43" t="s">
-        <v>276</v>
+    <row r="39" spans="1:8" ht="15" customHeight="1">
+      <c r="A39" s="56"/>
+      <c r="B39" s="35" t="s">
+        <v>269</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -8118,13 +8230,13 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="43" t="s">
-        <v>277</v>
+    <row r="40" spans="1:8" ht="15" customHeight="1">
+      <c r="A40" s="56"/>
+      <c r="B40" s="35" t="s">
+        <v>270</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -8132,13 +8244,13 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15">
-      <c r="A41" s="58"/>
-      <c r="B41" s="43" t="s">
-        <v>278</v>
+    <row r="41" spans="1:8" ht="15" customHeight="1">
+      <c r="A41" s="56"/>
+      <c r="B41" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -8146,13 +8258,13 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15">
-      <c r="A42" s="58"/>
-      <c r="B42" s="43" t="s">
-        <v>279</v>
+    <row r="42" spans="1:8" ht="15" customHeight="1">
+      <c r="A42" s="56"/>
+      <c r="B42" s="34" t="s">
+        <v>272</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -8160,13 +8272,13 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15">
-      <c r="A43" s="58"/>
-      <c r="B43" s="43" t="s">
-        <v>280</v>
+    <row r="43" spans="1:8" ht="15" customHeight="1">
+      <c r="A43" s="56"/>
+      <c r="B43" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -8174,13 +8286,13 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15">
-      <c r="A44" s="59"/>
-      <c r="B44" s="43" t="s">
-        <v>281</v>
+    <row r="44" spans="1:8" ht="15" customHeight="1">
+      <c r="A44" s="56"/>
+      <c r="B44" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -8188,9 +8300,37 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
     </row>
+    <row r="45" spans="1:8" ht="15">
+      <c r="A45" s="56"/>
+      <c r="B45" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" ht="15">
+      <c r="A46" s="56"/>
+      <c r="B46" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A44"/>
+    <mergeCell ref="A4:A46"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
@@ -8203,7 +8343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -8227,7 +8367,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -8259,13 +8399,13 @@
         <v>32</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -8280,165 +8420,165 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>435</v>
+      <c r="A4" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>426</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="58"/>
-      <c r="B5" s="43" t="s">
-        <v>405</v>
+      <c r="A5" s="53"/>
+      <c r="B5" s="34" t="s">
+        <v>399</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="58"/>
-      <c r="B6" s="43" t="s">
-        <v>408</v>
+      <c r="A6" s="53"/>
+      <c r="B6" s="34" t="s">
+        <v>402</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="14"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="58"/>
-      <c r="B7" s="43" t="s">
-        <v>410</v>
+      <c r="A7" s="53"/>
+      <c r="B7" s="34" t="s">
+        <v>404</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="58"/>
-      <c r="B8" s="43" t="s">
-        <v>412</v>
+      <c r="A8" s="53"/>
+      <c r="B8" s="34" t="s">
+        <v>406</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="58"/>
-      <c r="B9" s="43" t="s">
-        <v>414</v>
+      <c r="A9" s="53"/>
+      <c r="B9" s="34" t="s">
+        <v>408</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="58"/>
-      <c r="B10" s="43" t="s">
-        <v>416</v>
+      <c r="A10" s="53"/>
+      <c r="B10" s="34" t="s">
+        <v>410</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="58"/>
-      <c r="B11" s="43" t="s">
-        <v>418</v>
+      <c r="A11" s="53"/>
+      <c r="B11" s="34" t="s">
+        <v>412</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="59"/>
-      <c r="B12" s="43" t="s">
-        <v>225</v>
+      <c r="A12" s="54"/>
+      <c r="B12" s="34" t="s">
+        <v>220</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="43"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="10"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="45"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="4"/>
     </row>
   </sheetData>
@@ -8456,7 +8596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8480,7 +8620,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -8512,13 +8652,13 @@
         <v>22</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -8533,151 +8673,151 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>318</v>
+        <v>311</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>320</v>
+      <c r="B5" s="34" t="s">
+        <v>314</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>322</v>
+      <c r="B6" s="34" t="s">
+        <v>316</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="14"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43" t="s">
-        <v>324</v>
+      <c r="B7" s="34" t="s">
+        <v>318</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43" t="s">
-        <v>326</v>
+      <c r="B8" s="34" t="s">
+        <v>320</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43" t="s">
-        <v>328</v>
+      <c r="B9" s="34" t="s">
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43" t="s">
-        <v>330</v>
+      <c r="B10" s="34" t="s">
+        <v>324</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43" t="s">
-        <v>332</v>
+      <c r="B11" s="34" t="s">
+        <v>326</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="4"/>
     </row>
   </sheetData>
@@ -8692,7 +8832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8716,7 +8856,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -8748,13 +8888,13 @@
         <v>35</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -8769,135 +8909,135 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33">
       <c r="A4" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>334</v>
+        <v>336</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>328</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>336</v>
+      <c r="B5" s="34" t="s">
+        <v>330</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>338</v>
+      <c r="B6" s="34" t="s">
+        <v>332</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="14"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43" t="s">
-        <v>340</v>
+      <c r="B7" s="34" t="s">
+        <v>334</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="4"/>
     </row>
   </sheetData>
@@ -8912,14 +9052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8936,7 +9076,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54">
       <c r="A1" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -8968,13 +9108,13 @@
         <v>51</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="63">
       <c r="A3" s="6" t="s">
@@ -8989,135 +9129,135 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>239</v>
+      <c r="E3" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33">
       <c r="A4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>434</v>
+        <v>337</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>425</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="43" t="s">
-        <v>345</v>
+      <c r="B5" s="34" t="s">
+        <v>339</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
-        <v>347</v>
+      <c r="B6" s="34" t="s">
+        <v>341</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="14"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="43" t="s">
-        <v>349</v>
+      <c r="B7" s="34" t="s">
+        <v>343</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="45"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="4"/>
     </row>
   </sheetData>
